--- a/Wing/Temp/InvoiceTemp.xlsx
+++ b/Wing/Temp/InvoiceTemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/56601227acea1301/ドキュメント/TsubasaInvoice/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_project\07_Wing\Wing\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="8_{C0BDE716-9CDF-4908-8E2F-E4A77812746C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0A89347-03F1-48CE-A901-1CF25162C83D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA88BA7-3A85-4650-9B14-4785370378B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F539D26-CDB1-4CB0-827A-38487FB5B6C9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5F539D26-CDB1-4CB0-827A-38487FB5B6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -724,189 +724,174 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="5"/>
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1241,310 +1226,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="3"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="16" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="17"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="12" t="s">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="28" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="59" t="s">
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="2" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="32" t="s">
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="34" t="s">
+      <c r="I10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="35" t="s">
+      <c r="J10" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="36"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="37"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="17"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="36"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="37"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="17"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="36"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="37"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="36"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="37"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="36"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="37"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="36"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="37"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="36"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="37"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="36"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="36"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="37"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="36"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="37"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="36"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="37"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="52"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="38"/>
-      <c r="C22" s="39" t="s">
+      <c r="B22" s="55"/>
+      <c r="C22" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="44"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="53" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="23"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="48"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="55" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="56"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="48"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="57" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="58"/>
-      <c r="J25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="50"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F2:H3"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F2:H3"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Wing/Temp/InvoiceTemp.xlsx
+++ b/Wing/Temp/InvoiceTemp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_project\07_Wing\Wing\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA88BA7-3A85-4650-9B14-4785370378B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2098A5E0-3E6D-4FE4-B77E-385315DD4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{5F539D26-CDB1-4CB0-827A-38487FB5B6C9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F539D26-CDB1-4CB0-827A-38487FB5B6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +202,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -740,9 +749,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -800,98 +806,101 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1227,9 +1236,9 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="3"/>
@@ -1238,270 +1247,272 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="13" t="s">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="J10" s="15" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="54"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="17"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="16"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="54"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="17"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="54"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="17"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="54"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="17"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="54"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="17"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="16"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="54"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="16"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B17" s="54"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="17"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="16"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B18" s="54"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="17"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B19" s="54"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="16"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B20" s="54"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="17"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="16"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B21" s="54"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="17"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="55"/>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="32"/>
+      <c r="C22" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="18"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="19" t="s">
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="9"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="8"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="37"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="21" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="9"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="37"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="23" t="s">
+      <c r="B25" s="45"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="9"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="38"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="A6:C6"/>
@@ -1513,6 +1524,7 @@
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
+    <mergeCell ref="F2:H3"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
@@ -1523,12 +1535,9 @@
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C20:F20"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F2:H3"/>
     <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="C25:E25"/>
-    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Wing/Temp/InvoiceTemp.xlsx
+++ b/Wing/Temp/InvoiceTemp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\00_project\07_Wing\Wing\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2098A5E0-3E6D-4FE4-B77E-385315DD4C3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C605A407-A131-424B-A62E-D2EF8047F94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5F539D26-CDB1-4CB0-827A-38487FB5B6C9}"/>
   </bookViews>
@@ -157,6 +157,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -833,27 +836,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -866,41 +902,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1236,8 +1239,8 @@
   <sheetData>
     <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1247,69 +1250,69 @@
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="12" t="s">
         <v>15</v>
       </c>
@@ -1325,10 +1328,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="31"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="28"/>
       <c r="H11" s="26"/>
       <c r="I11" s="9"/>
@@ -1336,10 +1339,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="31"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="28"/>
       <c r="H12" s="26"/>
       <c r="I12" s="10"/>
@@ -1347,10 +1350,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="31"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="G13" s="29"/>
       <c r="H13" s="26"/>
       <c r="I13" s="24"/>
@@ -1358,10 +1361,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="31"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="29"/>
       <c r="H14" s="26"/>
       <c r="I14" s="24"/>
@@ -1369,10 +1372,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="31"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="41"/>
       <c r="G15" s="29"/>
       <c r="H15" s="26"/>
       <c r="I15" s="24"/>
@@ -1380,10 +1383,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="31"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="39"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="41"/>
       <c r="G16" s="29"/>
       <c r="H16" s="26"/>
       <c r="I16" s="24"/>
@@ -1391,10 +1394,10 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="31"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="39"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="41"/>
       <c r="G17" s="29"/>
       <c r="H17" s="26"/>
       <c r="I17" s="24"/>
@@ -1402,10 +1405,10 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="31"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="41"/>
       <c r="G18" s="29"/>
       <c r="H18" s="26"/>
       <c r="I18" s="24"/>
@@ -1413,10 +1416,10 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="31"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="39"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="41"/>
       <c r="G19" s="29"/>
       <c r="H19" s="26"/>
       <c r="I19" s="24"/>
@@ -1424,10 +1427,10 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="31"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="29"/>
       <c r="H20" s="26"/>
       <c r="I20" s="24"/>
@@ -1435,10 +1438,10 @@
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="31"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="G21" s="29"/>
       <c r="H21" s="26"/>
       <c r="I21" s="24"/>
@@ -1446,24 +1449,24 @@
     </row>
     <row r="22" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="32"/>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="30"/>
       <c r="H22" s="27"/>
       <c r="I22" s="25"/>
       <c r="J22" s="17"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="18" t="s">
@@ -1473,10 +1476,10 @@
       <c r="J23" s="8"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" s="45"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="20" t="s">
@@ -1486,10 +1489,10 @@
       <c r="J24" s="8"/>
     </row>
     <row r="25" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="45"/>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="43"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="22" t="s">
@@ -1499,10 +1502,10 @@
       <c r="J25" s="8"/>
     </row>
     <row r="26" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="46"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1511,6 +1514,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B1:C1"/>
@@ -1526,18 +1540,7 @@
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="F2:H3"/>
     <mergeCell ref="C26:E26"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:F21"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
